--- a/data/pca/factorExposure/factorExposure_2011-09-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,24 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +729,63 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.02117955651717766</v>
+        <v>0.01725848145908318</v>
       </c>
       <c r="C2">
-        <v>0.01306536573331811</v>
+        <v>-0.009414447243327044</v>
       </c>
       <c r="D2">
-        <v>-0.04717068870350727</v>
+        <v>0.03723137749691793</v>
       </c>
       <c r="E2">
-        <v>0.06425944626571814</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03031802344772138</v>
+      </c>
+      <c r="F2">
+        <v>-0.02833421545671396</v>
+      </c>
+      <c r="G2">
+        <v>0.0112659737376203</v>
+      </c>
+      <c r="H2">
+        <v>-0.009209491446308541</v>
+      </c>
+      <c r="I2">
+        <v>-0.004039651957108306</v>
+      </c>
+      <c r="J2">
+        <v>-0.06180646249118901</v>
+      </c>
+      <c r="K2">
+        <v>-0.07765260110983803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +799,63 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.08405201603155057</v>
+        <v>0.09658034143915489</v>
       </c>
       <c r="C4">
-        <v>0.04715219095121068</v>
+        <v>-0.04976741046559331</v>
       </c>
       <c r="D4">
-        <v>-0.05228796938657507</v>
+        <v>0.03321844428420329</v>
       </c>
       <c r="E4">
-        <v>0.01641538551431329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.0139737530058657</v>
+      </c>
+      <c r="F4">
+        <v>-0.07683385105909768</v>
+      </c>
+      <c r="G4">
+        <v>-0.02446607441584263</v>
+      </c>
+      <c r="H4">
+        <v>0.007472142146681153</v>
+      </c>
+      <c r="I4">
+        <v>-0.06424564426249951</v>
+      </c>
+      <c r="J4">
+        <v>0.03994712954436303</v>
+      </c>
+      <c r="K4">
+        <v>0.04670634167339368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +869,413 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1171115110439835</v>
+        <v>0.1300451639910087</v>
       </c>
       <c r="C6">
-        <v>-0.005553772427772149</v>
+        <v>-0.003344226887232031</v>
       </c>
       <c r="D6">
-        <v>-0.04226523625601239</v>
+        <v>0.06277153985831792</v>
       </c>
       <c r="E6">
-        <v>0.07185643923995788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02621408670339963</v>
+      </c>
+      <c r="F6">
+        <v>-0.03383901026565792</v>
+      </c>
+      <c r="G6">
+        <v>-0.04824674508342793</v>
+      </c>
+      <c r="H6">
+        <v>0.1977457094751986</v>
+      </c>
+      <c r="I6">
+        <v>0.09689219355005095</v>
+      </c>
+      <c r="J6">
+        <v>0.436398935574741</v>
+      </c>
+      <c r="K6">
+        <v>0.02872146551901924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.07342456270256557</v>
+        <v>0.07029101877432195</v>
       </c>
       <c r="C7">
-        <v>0.02187138256863387</v>
+        <v>-0.05172260866985769</v>
       </c>
       <c r="D7">
-        <v>-0.06085572553707357</v>
+        <v>0.04715833585210777</v>
       </c>
       <c r="E7">
-        <v>0.05525844111980287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.03039834604276311</v>
+      </c>
+      <c r="F7">
+        <v>-0.04305663846206101</v>
+      </c>
+      <c r="G7">
+        <v>0.01254600592489079</v>
+      </c>
+      <c r="H7">
+        <v>-0.004765207534343856</v>
+      </c>
+      <c r="I7">
+        <v>-0.04582279235516079</v>
+      </c>
+      <c r="J7">
+        <v>-0.05252821174960081</v>
+      </c>
+      <c r="K7">
+        <v>0.06063373461741872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.04169017330776819</v>
+        <v>0.0424631431256097</v>
       </c>
       <c r="C8">
-        <v>0.0552692811983868</v>
+        <v>-0.02522491066553719</v>
       </c>
       <c r="D8">
-        <v>0.004269020471778621</v>
+        <v>-0.00749624233427031</v>
       </c>
       <c r="E8">
-        <v>0.05663025717009788</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.05317076409007027</v>
+      </c>
+      <c r="F8">
+        <v>-0.05222563227100347</v>
+      </c>
+      <c r="G8">
+        <v>-0.04964143127557016</v>
+      </c>
+      <c r="H8">
+        <v>0.03839259769105045</v>
+      </c>
+      <c r="I8">
+        <v>-0.09993355712109975</v>
+      </c>
+      <c r="J8">
+        <v>0.02293644733252041</v>
+      </c>
+      <c r="K8">
+        <v>0.04389722872173774</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.08013222238836988</v>
+        <v>0.08780430860574029</v>
       </c>
       <c r="C9">
-        <v>0.05696644103749221</v>
+        <v>-0.05005325380583954</v>
       </c>
       <c r="D9">
-        <v>-0.04482645062305503</v>
+        <v>0.03117413540682102</v>
       </c>
       <c r="E9">
-        <v>0.01729069226799136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01400702307558348</v>
+      </c>
+      <c r="F9">
+        <v>-0.05982147678887725</v>
+      </c>
+      <c r="G9">
+        <v>-0.0417072914413652</v>
+      </c>
+      <c r="H9">
+        <v>0.003562215830527475</v>
+      </c>
+      <c r="I9">
+        <v>-0.0752491022141078</v>
+      </c>
+      <c r="J9">
+        <v>0.04181354249369073</v>
+      </c>
+      <c r="K9">
+        <v>0.03035927878263519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.02065766489605892</v>
+        <v>0.06528868163253292</v>
       </c>
       <c r="C10">
-        <v>-0.1612369479651457</v>
+        <v>0.1975183976343635</v>
       </c>
       <c r="D10">
-        <v>0.009264301005536433</v>
+        <v>0.01550391807304295</v>
       </c>
       <c r="E10">
-        <v>0.0885257061686264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.05037208650009477</v>
+      </c>
+      <c r="F10">
+        <v>-0.03728537774507162</v>
+      </c>
+      <c r="G10">
+        <v>0.02932717379409008</v>
+      </c>
+      <c r="H10">
+        <v>0.01064779848611425</v>
+      </c>
+      <c r="I10">
+        <v>0.04377244233565192</v>
+      </c>
+      <c r="J10">
+        <v>-0.02515372960726011</v>
+      </c>
+      <c r="K10">
+        <v>-0.02980885778937912</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07580051134508364</v>
+        <v>0.07626015323665451</v>
       </c>
       <c r="C11">
-        <v>0.05696271038317301</v>
+        <v>-0.05798983135657621</v>
       </c>
       <c r="D11">
-        <v>-0.03173446682838656</v>
+        <v>0.02851864120212602</v>
       </c>
       <c r="E11">
-        <v>0.03480888831943089</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02029808521114947</v>
+      </c>
+      <c r="F11">
+        <v>-0.01886988187513969</v>
+      </c>
+      <c r="G11">
+        <v>-0.06971520763142097</v>
+      </c>
+      <c r="H11">
+        <v>-0.01552210910814427</v>
+      </c>
+      <c r="I11">
+        <v>-0.08207640736957175</v>
+      </c>
+      <c r="J11">
+        <v>-0.02960777477512158</v>
+      </c>
+      <c r="K11">
+        <v>-0.04576485917560576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07300645598485429</v>
+        <v>0.07386394823939703</v>
       </c>
       <c r="C12">
-        <v>0.0423066016949173</v>
+        <v>-0.04611813652336137</v>
       </c>
       <c r="D12">
-        <v>-0.04372539884759898</v>
+        <v>0.02721729252525446</v>
       </c>
       <c r="E12">
-        <v>0.02915829718563323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.007390656963701326</v>
+      </c>
+      <c r="F12">
+        <v>-0.03256703336206666</v>
+      </c>
+      <c r="G12">
+        <v>-0.04277374869144847</v>
+      </c>
+      <c r="H12">
+        <v>0.01185137789893713</v>
+      </c>
+      <c r="I12">
+        <v>-0.09737029726247493</v>
+      </c>
+      <c r="J12">
+        <v>-0.0296447932877347</v>
+      </c>
+      <c r="K12">
+        <v>-0.02306316641530734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.08111633977774939</v>
+        <v>0.07054499318442405</v>
       </c>
       <c r="C13">
-        <v>0.03456076947145647</v>
+        <v>-0.0342349583026175</v>
       </c>
       <c r="D13">
-        <v>-0.02809989580497477</v>
+        <v>-0.009822728058659188</v>
       </c>
       <c r="E13">
-        <v>0.02330496739568327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.0006833028142568061</v>
+      </c>
+      <c r="F13">
+        <v>-0.04455359538977079</v>
+      </c>
+      <c r="G13">
+        <v>-0.01470167910700972</v>
+      </c>
+      <c r="H13">
+        <v>1.575160874367163e-05</v>
+      </c>
+      <c r="I13">
+        <v>-0.1058802031084777</v>
+      </c>
+      <c r="J13">
+        <v>-0.0191985782290538</v>
+      </c>
+      <c r="K13">
+        <v>0.09845804873227632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.03489280630694952</v>
+        <v>0.04424137188336554</v>
       </c>
       <c r="C14">
-        <v>-0.003845586343061737</v>
+        <v>-0.007073414643497339</v>
       </c>
       <c r="D14">
-        <v>-0.0274159973160354</v>
+        <v>0.03098903924115438</v>
       </c>
       <c r="E14">
-        <v>0.01122641679082664</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.0006699487672265948</v>
+      </c>
+      <c r="F14">
+        <v>-0.03179900044515627</v>
+      </c>
+      <c r="G14">
+        <v>-0.03698713120456944</v>
+      </c>
+      <c r="H14">
+        <v>-0.04317224556076848</v>
+      </c>
+      <c r="I14">
+        <v>-0.05880958859707822</v>
+      </c>
+      <c r="J14">
+        <v>0.04963665558233236</v>
+      </c>
+      <c r="K14">
+        <v>0.0469326212541202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.05700556736548528</v>
+        <v>0.04607230415195708</v>
       </c>
       <c r="C15">
-        <v>0.01670480429698559</v>
+        <v>-0.01643505670691468</v>
       </c>
       <c r="D15">
-        <v>-0.008576913592855432</v>
+        <v>-0.0139349191160041</v>
       </c>
       <c r="E15">
-        <v>0.008632901540616029</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.004048306083163766</v>
+      </c>
+      <c r="F15">
+        <v>-0.03673720483242637</v>
+      </c>
+      <c r="G15">
+        <v>-0.0249165908077435</v>
+      </c>
+      <c r="H15">
+        <v>-0.004957805117272997</v>
+      </c>
+      <c r="I15">
+        <v>-0.0193338926408826</v>
+      </c>
+      <c r="J15">
+        <v>0.0360847666636896</v>
+      </c>
+      <c r="K15">
+        <v>0.07847917411519213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.06476286794308975</v>
+        <v>0.07507433428002105</v>
       </c>
       <c r="C16">
-        <v>0.05683919618623084</v>
+        <v>-0.05749852979157848</v>
       </c>
       <c r="D16">
-        <v>-0.0379055860454157</v>
+        <v>0.03068087090912769</v>
       </c>
       <c r="E16">
-        <v>0.02462099250615362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.01096080921074991</v>
+      </c>
+      <c r="F16">
+        <v>-0.03700108190748912</v>
+      </c>
+      <c r="G16">
+        <v>-0.04168088031037861</v>
+      </c>
+      <c r="H16">
+        <v>-0.01059963095517648</v>
+      </c>
+      <c r="I16">
+        <v>-0.05813924924574096</v>
+      </c>
+      <c r="J16">
+        <v>-0.01948783259323324</v>
+      </c>
+      <c r="K16">
+        <v>-0.02286405066866437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1289,28 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1324,28 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1359,273 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.0700928467668412</v>
+        <v>0.06290462591110622</v>
       </c>
       <c r="C20">
-        <v>0.05124189955671597</v>
+        <v>-0.0398108504828459</v>
       </c>
       <c r="D20">
-        <v>-0.02012218130923282</v>
+        <v>0.009188333696304238</v>
       </c>
       <c r="E20">
-        <v>0.02373898301440222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.0142052002945525</v>
+      </c>
+      <c r="F20">
+        <v>-0.01683793866085457</v>
+      </c>
+      <c r="G20">
+        <v>-0.03152734944369312</v>
+      </c>
+      <c r="H20">
+        <v>-0.01358913306321695</v>
+      </c>
+      <c r="I20">
+        <v>-0.1234549151429967</v>
+      </c>
+      <c r="J20">
+        <v>0.005544858247346216</v>
+      </c>
+      <c r="K20">
+        <v>0.02695582632427804</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.03795048221257905</v>
+        <v>0.02989537015724679</v>
       </c>
       <c r="C21">
-        <v>0.02338886761914419</v>
+        <v>-0.02522740743106686</v>
       </c>
       <c r="D21">
-        <v>0.02200595047071308</v>
+        <v>-0.03244799607421515</v>
       </c>
       <c r="E21">
-        <v>0.01247706861043026</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.001271747157081692</v>
+      </c>
+      <c r="F21">
+        <v>-0.02172328010519028</v>
+      </c>
+      <c r="G21">
+        <v>-0.003918522763340576</v>
+      </c>
+      <c r="H21">
+        <v>0.07613757443679821</v>
+      </c>
+      <c r="I21">
+        <v>-0.0213124648847605</v>
+      </c>
+      <c r="J21">
+        <v>0.03877592538292118</v>
+      </c>
+      <c r="K21">
+        <v>0.05148835681060709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.117314521812233</v>
+        <v>0.09467636723092383</v>
       </c>
       <c r="C22">
-        <v>0.1079066648023807</v>
+        <v>-0.06372677474496381</v>
       </c>
       <c r="D22">
-        <v>0.01365659820779372</v>
+        <v>-0.2701977215616391</v>
       </c>
       <c r="E22">
-        <v>0.02735370477110113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.01170348070026377</v>
+      </c>
+      <c r="F22">
+        <v>-0.4776915876150747</v>
+      </c>
+      <c r="G22">
+        <v>0.3030571071430041</v>
+      </c>
+      <c r="H22">
+        <v>0.01754931126175713</v>
+      </c>
+      <c r="I22">
+        <v>0.22208031080681</v>
+      </c>
+      <c r="J22">
+        <v>-0.06936636043601324</v>
+      </c>
+      <c r="K22">
+        <v>-0.05324523309029857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.1183285726606603</v>
+        <v>0.09565545152795336</v>
       </c>
       <c r="C23">
-        <v>0.1073502213401872</v>
+        <v>-0.06405039931665511</v>
       </c>
       <c r="D23">
-        <v>0.01203051218133187</v>
+        <v>-0.2699197499998715</v>
       </c>
       <c r="E23">
-        <v>0.02858984867471976</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.01140600112056299</v>
+      </c>
+      <c r="F23">
+        <v>-0.4823419906432552</v>
+      </c>
+      <c r="G23">
+        <v>0.2977743169097297</v>
+      </c>
+      <c r="H23">
+        <v>0.01635026955450822</v>
+      </c>
+      <c r="I23">
+        <v>0.2246757618185484</v>
+      </c>
+      <c r="J23">
+        <v>-0.06418567666317847</v>
+      </c>
+      <c r="K23">
+        <v>-0.05336216616108785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08646249107130156</v>
+        <v>0.08445329334428905</v>
       </c>
       <c r="C24">
-        <v>0.05504306176794869</v>
+        <v>-0.05678146527073547</v>
       </c>
       <c r="D24">
-        <v>-0.03360079291970583</v>
+        <v>0.02141983170372006</v>
       </c>
       <c r="E24">
-        <v>0.03818680462617847</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.01900117769062107</v>
+      </c>
+      <c r="F24">
+        <v>-0.03768839452373145</v>
+      </c>
+      <c r="G24">
+        <v>-0.06160721832266696</v>
+      </c>
+      <c r="H24">
+        <v>0.00885130686628046</v>
+      </c>
+      <c r="I24">
+        <v>-0.07198867821804492</v>
+      </c>
+      <c r="J24">
+        <v>-0.01165647293152066</v>
+      </c>
+      <c r="K24">
+        <v>-0.03264408915726368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.08311736819429856</v>
+        <v>0.07959840156368271</v>
       </c>
       <c r="C25">
-        <v>0.04660098397910201</v>
+        <v>-0.04495786341560148</v>
       </c>
       <c r="D25">
-        <v>-0.05056493199213388</v>
+        <v>0.03309506854384178</v>
       </c>
       <c r="E25">
-        <v>0.04732217515985765</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01203199184311917</v>
+      </c>
+      <c r="F25">
+        <v>-0.04640048610123298</v>
+      </c>
+      <c r="G25">
+        <v>-0.05709175544082111</v>
+      </c>
+      <c r="H25">
+        <v>-0.002915715405175545</v>
+      </c>
+      <c r="I25">
+        <v>-0.08630856981190647</v>
+      </c>
+      <c r="J25">
+        <v>-0.0136924722144544</v>
+      </c>
+      <c r="K25">
+        <v>-0.04523642121100354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05445246301421446</v>
+        <v>0.04653887110469787</v>
       </c>
       <c r="C26">
-        <v>0.01517408124196312</v>
+        <v>-0.02481482180984778</v>
       </c>
       <c r="D26">
-        <v>0.003274311133599797</v>
+        <v>-0.02459477579520089</v>
       </c>
       <c r="E26">
-        <v>0.0362516440458623</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.01280996957072385</v>
+      </c>
+      <c r="F26">
+        <v>-0.02440537438635178</v>
+      </c>
+      <c r="G26">
+        <v>-0.02575311252500584</v>
+      </c>
+      <c r="H26">
+        <v>-0.02253242375489749</v>
+      </c>
+      <c r="I26">
+        <v>-0.02526227747872843</v>
+      </c>
+      <c r="J26">
+        <v>0.02164675822722411</v>
+      </c>
+      <c r="K26">
+        <v>0.115930631586413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1639,343 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.04327872016214565</v>
+        <v>0.07875136634288166</v>
       </c>
       <c r="C28">
-        <v>-0.2963140806494195</v>
+        <v>0.2979167608250726</v>
       </c>
       <c r="D28">
-        <v>0.01281593001498774</v>
+        <v>-0.007136801710476847</v>
       </c>
       <c r="E28">
-        <v>0.07781014603106291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.02466774647824432</v>
+      </c>
+      <c r="F28">
+        <v>-0.01624777033961813</v>
+      </c>
+      <c r="G28">
+        <v>-0.02729644087766383</v>
+      </c>
+      <c r="H28">
+        <v>0.04523119696062177</v>
+      </c>
+      <c r="I28">
+        <v>0.03302816587553022</v>
+      </c>
+      <c r="J28">
+        <v>-0.01740563585727293</v>
+      </c>
+      <c r="K28">
+        <v>0.06982726351830183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05855569790320937</v>
+        <v>0.05553732569290125</v>
       </c>
       <c r="C29">
-        <v>-0.003922804082296586</v>
+        <v>-0.008885768075410177</v>
       </c>
       <c r="D29">
-        <v>-0.0306690779005747</v>
+        <v>0.02129920683189279</v>
       </c>
       <c r="E29">
-        <v>0.02446472883299855</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.01214853456572679</v>
+      </c>
+      <c r="F29">
+        <v>-0.04005886873621055</v>
+      </c>
+      <c r="G29">
+        <v>-0.02992887453171741</v>
+      </c>
+      <c r="H29">
+        <v>-0.05406591669590421</v>
+      </c>
+      <c r="I29">
+        <v>-0.04999179515893925</v>
+      </c>
+      <c r="J29">
+        <v>0.03196810769035619</v>
+      </c>
+      <c r="K29">
+        <v>0.03844808990249698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1523155916733675</v>
+        <v>0.1317715613542274</v>
       </c>
       <c r="C30">
-        <v>0.06444978647462955</v>
+        <v>-0.0537368560413737</v>
       </c>
       <c r="D30">
-        <v>-0.07654032742252194</v>
+        <v>0.02321751009821716</v>
       </c>
       <c r="E30">
-        <v>0.05246410166548521</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.01826900150930746</v>
+      </c>
+      <c r="F30">
+        <v>-0.1224426443208338</v>
+      </c>
+      <c r="G30">
+        <v>-0.05239643818262735</v>
+      </c>
+      <c r="H30">
+        <v>0.1012519827428474</v>
+      </c>
+      <c r="I30">
+        <v>-0.3240327241153049</v>
+      </c>
+      <c r="J30">
+        <v>-0.05861082148695861</v>
+      </c>
+      <c r="K30">
+        <v>0.2144703085766503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.05980032779204644</v>
+        <v>0.0497067187949324</v>
       </c>
       <c r="C31">
-        <v>0.01456202316463631</v>
+        <v>-0.0353075124971678</v>
       </c>
       <c r="D31">
-        <v>-0.02524352492218428</v>
+        <v>0.006352018096093267</v>
       </c>
       <c r="E31">
-        <v>0.005633747314500174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.009545594891516856</v>
+      </c>
+      <c r="F31">
+        <v>-0.02078994521138525</v>
+      </c>
+      <c r="G31">
+        <v>-0.006660065389452694</v>
+      </c>
+      <c r="H31">
+        <v>-0.04894300263341121</v>
+      </c>
+      <c r="I31">
+        <v>-0.04179969210742518</v>
+      </c>
+      <c r="J31">
+        <v>0.03675021820998062</v>
+      </c>
+      <c r="K31">
+        <v>0.01675381539010519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.04748846081596755</v>
+        <v>0.04975056012689378</v>
       </c>
       <c r="C32">
-        <v>0.01368035700318549</v>
+        <v>0.004316279176060661</v>
       </c>
       <c r="D32">
-        <v>-0.01347948206393955</v>
+        <v>-0.02575014391758579</v>
       </c>
       <c r="E32">
-        <v>0.004630754622249766</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.0101411471740785</v>
+      </c>
+      <c r="F32">
+        <v>-0.08366394555045306</v>
+      </c>
+      <c r="G32">
+        <v>0.004816515106568994</v>
+      </c>
+      <c r="H32">
+        <v>-0.002950342818717087</v>
+      </c>
+      <c r="I32">
+        <v>0.02702450557039431</v>
+      </c>
+      <c r="J32">
+        <v>-0.06549439809825346</v>
+      </c>
+      <c r="K32">
+        <v>0.1234871728222902</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1044824874228845</v>
+        <v>0.1037332285006517</v>
       </c>
       <c r="C33">
-        <v>0.02926058668035547</v>
+        <v>-0.0459539157748228</v>
       </c>
       <c r="D33">
-        <v>-0.03682560542891719</v>
+        <v>0.009311213817558207</v>
       </c>
       <c r="E33">
-        <v>0.009601152052827243</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.0168961887480142</v>
+      </c>
+      <c r="F33">
+        <v>-0.02957990805949281</v>
+      </c>
+      <c r="G33">
+        <v>-0.009269642324009614</v>
+      </c>
+      <c r="H33">
+        <v>-0.01898960335523701</v>
+      </c>
+      <c r="I33">
+        <v>-0.06784214729216183</v>
+      </c>
+      <c r="J33">
+        <v>0.02269367410580471</v>
+      </c>
+      <c r="K33">
+        <v>0.02919259394054898</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06538551838039725</v>
+        <v>0.07072884937695656</v>
       </c>
       <c r="C34">
-        <v>0.05675511145444115</v>
+        <v>-0.04789551966584696</v>
       </c>
       <c r="D34">
-        <v>-0.02238165119958943</v>
+        <v>0.0170293355016588</v>
       </c>
       <c r="E34">
-        <v>0.02675055553207143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01215683040822861</v>
+      </c>
+      <c r="F34">
+        <v>-0.02605652560865918</v>
+      </c>
+      <c r="G34">
+        <v>-0.04160623370543122</v>
+      </c>
+      <c r="H34">
+        <v>-0.01967408654939048</v>
+      </c>
+      <c r="I34">
+        <v>-0.06558105556923396</v>
+      </c>
+      <c r="J34">
+        <v>0.003309566874850095</v>
+      </c>
+      <c r="K34">
+        <v>-0.05189428262893795</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04415157264762365</v>
+        <v>0.03754107884294064</v>
       </c>
       <c r="C35">
-        <v>0.01194610304511459</v>
+        <v>-0.01886533573752797</v>
       </c>
       <c r="D35">
-        <v>-0.01859060971277706</v>
+        <v>0.009755334256145966</v>
       </c>
       <c r="E35">
-        <v>0.004536365118853051</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01183001430174472</v>
+      </c>
+      <c r="F35">
+        <v>-0.01520791804858676</v>
+      </c>
+      <c r="G35">
+        <v>-0.01131270013822702</v>
+      </c>
+      <c r="H35">
+        <v>-0.01743521604090364</v>
+      </c>
+      <c r="I35">
+        <v>-0.05857648887587984</v>
+      </c>
+      <c r="J35">
+        <v>0.005179439924285748</v>
+      </c>
+      <c r="K35">
+        <v>0.001039182049913646</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03965022882692337</v>
+        <v>0.03483137073216339</v>
       </c>
       <c r="C36">
-        <v>0.01757954677649921</v>
+        <v>-0.01451891713101906</v>
       </c>
       <c r="D36">
-        <v>-0.01178142479098794</v>
+        <v>-0.003628359873745073</v>
       </c>
       <c r="E36">
-        <v>0.03282395078478837</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0192052574781987</v>
+      </c>
+      <c r="F36">
+        <v>-0.03680948277421043</v>
+      </c>
+      <c r="G36">
+        <v>-0.02408236282231227</v>
+      </c>
+      <c r="H36">
+        <v>-0.01013935064490141</v>
+      </c>
+      <c r="I36">
+        <v>-0.06870957484384839</v>
+      </c>
+      <c r="J36">
+        <v>0.01513083407538361</v>
+      </c>
+      <c r="K36">
+        <v>0.03814364242576333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1989,168 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.06538271487343528</v>
+        <v>0.05560691031074216</v>
       </c>
       <c r="C38">
-        <v>0.00519544836474854</v>
+        <v>-0.0294013086929761</v>
       </c>
       <c r="D38">
-        <v>0.01842577732334385</v>
+        <v>-0.03108832126842761</v>
       </c>
       <c r="E38">
-        <v>-0.0150616823853144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.009812873578959876</v>
+      </c>
+      <c r="F38">
+        <v>-0.00305276524223862</v>
+      </c>
+      <c r="G38">
+        <v>-0.0003396384742218769</v>
+      </c>
+      <c r="H38">
+        <v>-0.0208445507237338</v>
+      </c>
+      <c r="I38">
+        <v>0.02052381465264913</v>
+      </c>
+      <c r="J38">
+        <v>-0.0290116587000652</v>
+      </c>
+      <c r="K38">
+        <v>0.06078554139505116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.09597354732070569</v>
+        <v>0.09951021353185861</v>
       </c>
       <c r="C39">
-        <v>0.04122262583655093</v>
+        <v>-0.04968442110991107</v>
       </c>
       <c r="D39">
-        <v>-0.04167755930806424</v>
+        <v>0.0265995003338718</v>
       </c>
       <c r="E39">
-        <v>0.007292129271190718</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.004949105337959718</v>
+      </c>
+      <c r="F39">
+        <v>-0.04056847688993271</v>
+      </c>
+      <c r="G39">
+        <v>-0.04968429442785143</v>
+      </c>
+      <c r="H39">
+        <v>0.006127863856521664</v>
+      </c>
+      <c r="I39">
+        <v>-0.1071816559320738</v>
+      </c>
+      <c r="J39">
+        <v>-0.1190371422320989</v>
+      </c>
+      <c r="K39">
+        <v>-0.02024739267196259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.0740430037668315</v>
+        <v>0.05005705595814696</v>
       </c>
       <c r="C40">
-        <v>0.01497502143758347</v>
+        <v>-0.04146073267068275</v>
       </c>
       <c r="D40">
-        <v>-0.02997213525811109</v>
+        <v>-0.03470992937997468</v>
       </c>
       <c r="E40">
-        <v>0.02324775371280258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.0173008809022027</v>
+      </c>
+      <c r="F40">
+        <v>-0.06438373883167113</v>
+      </c>
+      <c r="G40">
+        <v>-0.05175963898892554</v>
+      </c>
+      <c r="H40">
+        <v>0.09281104395352133</v>
+      </c>
+      <c r="I40">
+        <v>-0.212169536808385</v>
+      </c>
+      <c r="J40">
+        <v>-0.2230864905729927</v>
+      </c>
+      <c r="K40">
+        <v>0.04702237997419047</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.06267819742640943</v>
+        <v>0.05082155990064312</v>
       </c>
       <c r="C41">
-        <v>0.02578744167565107</v>
+        <v>-0.03296326982475899</v>
       </c>
       <c r="D41">
-        <v>-0.006259185567925425</v>
+        <v>0.002390137834818892</v>
       </c>
       <c r="E41">
-        <v>-0.001813397886210053</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002236556746532229</v>
+      </c>
+      <c r="F41">
+        <v>0.01769650880387055</v>
+      </c>
+      <c r="G41">
+        <v>-0.02111681701140393</v>
+      </c>
+      <c r="H41">
+        <v>-0.03202392549703933</v>
+      </c>
+      <c r="I41">
+        <v>-0.02337559396795908</v>
+      </c>
+      <c r="J41">
+        <v>-0.03288873724420779</v>
+      </c>
+      <c r="K41">
+        <v>0.03268353537959572</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2164,98 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.06248960331933094</v>
+        <v>0.0624745141004289</v>
       </c>
       <c r="C43">
-        <v>0.01171607285460228</v>
+        <v>-0.0327663033772516</v>
       </c>
       <c r="D43">
-        <v>-0.01881601841033583</v>
+        <v>0.01225465904092599</v>
       </c>
       <c r="E43">
-        <v>0.01832489970572884</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01698108308730637</v>
+      </c>
+      <c r="F43">
+        <v>-0.01625910555158456</v>
+      </c>
+      <c r="G43">
+        <v>0.00281845719927982</v>
+      </c>
+      <c r="H43">
+        <v>-0.05095558678904977</v>
+      </c>
+      <c r="I43">
+        <v>-0.02440270631463406</v>
+      </c>
+      <c r="J43">
+        <v>-0.008290204475334203</v>
+      </c>
+      <c r="K43">
+        <v>0.008887370379741156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.09145179388341639</v>
+        <v>0.09337578922574019</v>
       </c>
       <c r="C44">
-        <v>0.05285471085110878</v>
+        <v>-0.05320510019568371</v>
       </c>
       <c r="D44">
-        <v>-0.0240995152697114</v>
+        <v>-0.006140335074234727</v>
       </c>
       <c r="E44">
-        <v>0.08043490607827758</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.07226296709364353</v>
+      </c>
+      <c r="F44">
+        <v>-0.1147108106375132</v>
+      </c>
+      <c r="G44">
+        <v>-0.07913486822670618</v>
+      </c>
+      <c r="H44">
+        <v>-0.01623645775813539</v>
+      </c>
+      <c r="I44">
+        <v>-0.146638171811722</v>
+      </c>
+      <c r="J44">
+        <v>-0.04754993268255103</v>
+      </c>
+      <c r="K44">
+        <v>0.004098286481131678</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2269,238 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.03275501378256385</v>
+        <v>0.04573366315500359</v>
       </c>
       <c r="C46">
-        <v>0.03127031496315359</v>
+        <v>-0.02998377447104277</v>
       </c>
       <c r="D46">
-        <v>-0.0155675179504025</v>
+        <v>0.01205399046778923</v>
       </c>
       <c r="E46">
-        <v>0.02255041924937896</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.01724154612467425</v>
+      </c>
+      <c r="F46">
+        <v>-0.04580835288759781</v>
+      </c>
+      <c r="G46">
+        <v>-0.003734962451015477</v>
+      </c>
+      <c r="H46">
+        <v>-0.006144830012569424</v>
+      </c>
+      <c r="I46">
+        <v>-0.01541984591117635</v>
+      </c>
+      <c r="J46">
+        <v>0.03471478952489331</v>
+      </c>
+      <c r="K46">
+        <v>0.04690393096334237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.03832375021802836</v>
+        <v>0.04693895692301829</v>
       </c>
       <c r="C47">
-        <v>-0.009949439712961149</v>
+        <v>-0.005335847942497049</v>
       </c>
       <c r="D47">
-        <v>-0.01005214337822902</v>
+        <v>-0.002375156189892718</v>
       </c>
       <c r="E47">
-        <v>0.01879858643415664</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.006673346040361242</v>
+      </c>
+      <c r="F47">
+        <v>-0.03980774674278361</v>
+      </c>
+      <c r="G47">
+        <v>0.01848845682807676</v>
+      </c>
+      <c r="H47">
+        <v>-0.01292263783957713</v>
+      </c>
+      <c r="I47">
+        <v>-0.02741137400724985</v>
+      </c>
+      <c r="J47">
+        <v>0.04054919949279724</v>
+      </c>
+      <c r="K47">
+        <v>-0.007120320726218582</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.05280601069513237</v>
+        <v>0.04514306759467068</v>
       </c>
       <c r="C48">
-        <v>0.02262606756770085</v>
+        <v>-0.01740496949747334</v>
       </c>
       <c r="D48">
-        <v>-0.02459753389024283</v>
+        <v>-0.01215155181085216</v>
       </c>
       <c r="E48">
-        <v>0.02957636515062981</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.0009244350667684077</v>
+      </c>
+      <c r="F48">
+        <v>-0.04768349212208596</v>
+      </c>
+      <c r="G48">
+        <v>-0.008077317724656283</v>
+      </c>
+      <c r="H48">
+        <v>0.007411076623991726</v>
+      </c>
+      <c r="I48">
+        <v>-0.04607497402001116</v>
+      </c>
+      <c r="J48">
+        <v>0.02001581974089516</v>
+      </c>
+      <c r="K48">
+        <v>0.03860887925073624</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.146957343678929</v>
+        <v>0.2018644513965303</v>
       </c>
       <c r="C49">
-        <v>-0.0003752425750046261</v>
+        <v>-0.01008445078991116</v>
       </c>
       <c r="D49">
-        <v>-0.07285223933243774</v>
+        <v>0.1652001936801554</v>
       </c>
       <c r="E49">
-        <v>0.01890731152327633</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.02517232579756477</v>
+      </c>
+      <c r="F49">
+        <v>0.1199666368558568</v>
+      </c>
+      <c r="G49">
+        <v>0.1295869080524333</v>
+      </c>
+      <c r="H49">
+        <v>0.146014260448506</v>
+      </c>
+      <c r="I49">
+        <v>0.1414849963692864</v>
+      </c>
+      <c r="J49">
+        <v>-0.08788129858036856</v>
+      </c>
+      <c r="K49">
+        <v>-0.1914315887177898</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.06569479978048746</v>
+        <v>0.05710895487513229</v>
       </c>
       <c r="C50">
-        <v>0.01912911263549262</v>
+        <v>-0.03077557834948661</v>
       </c>
       <c r="D50">
-        <v>-0.03072101691152119</v>
+        <v>0.008998352929365487</v>
       </c>
       <c r="E50">
-        <v>0.008375259724745126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01629950881291844</v>
+      </c>
+      <c r="F50">
+        <v>-0.03233827918555711</v>
+      </c>
+      <c r="G50">
+        <v>-0.01794183532274837</v>
+      </c>
+      <c r="H50">
+        <v>-0.05707515265083406</v>
+      </c>
+      <c r="I50">
+        <v>-0.03378439879622062</v>
+      </c>
+      <c r="J50">
+        <v>0.05431170769613676</v>
+      </c>
+      <c r="K50">
+        <v>0.02814546007466796</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.0331671701294925</v>
+        <v>0.03983149325722368</v>
       </c>
       <c r="C51">
-        <v>-0.007470832283140852</v>
+        <v>0.002955300948061478</v>
       </c>
       <c r="D51">
-        <v>0.01592020710594449</v>
+        <v>-0.01221194978321424</v>
       </c>
       <c r="E51">
-        <v>0.002412879105158426</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.02731063691995724</v>
+      </c>
+      <c r="F51">
+        <v>0.01798032102962634</v>
+      </c>
+      <c r="G51">
+        <v>0.01974590805105698</v>
+      </c>
+      <c r="H51">
+        <v>0.01438606078027469</v>
+      </c>
+      <c r="I51">
+        <v>-0.002060472043243311</v>
+      </c>
+      <c r="J51">
+        <v>-0.04193692816354315</v>
+      </c>
+      <c r="K51">
+        <v>-0.06003961787857127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2514,168 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1556763750144992</v>
+        <v>0.1561855767289454</v>
       </c>
       <c r="C53">
-        <v>-0.03687128837821772</v>
+        <v>-0.01121420148513445</v>
       </c>
       <c r="D53">
-        <v>-0.06180215734147598</v>
+        <v>0.06476772046889422</v>
       </c>
       <c r="E53">
-        <v>0.007255061748522524</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.008808730071813852</v>
+      </c>
+      <c r="F53">
+        <v>0.01447189360908541</v>
+      </c>
+      <c r="G53">
+        <v>0.01620415637407346</v>
+      </c>
+      <c r="H53">
+        <v>-0.2408024598040883</v>
+      </c>
+      <c r="I53">
+        <v>0.04072192691849494</v>
+      </c>
+      <c r="J53">
+        <v>0.04239560332248852</v>
+      </c>
+      <c r="K53">
+        <v>-0.05475176401728458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.06154759695450385</v>
+        <v>0.06136224408912398</v>
       </c>
       <c r="C54">
-        <v>0.01256557260001084</v>
+        <v>-0.008257788274903094</v>
       </c>
       <c r="D54">
-        <v>-0.01611875443000921</v>
+        <v>-0.005657392518816621</v>
       </c>
       <c r="E54">
-        <v>0.03219100862245654</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01021917617476634</v>
+      </c>
+      <c r="F54">
+        <v>-0.07873075479248447</v>
+      </c>
+      <c r="G54">
+        <v>-0.04408827400190644</v>
+      </c>
+      <c r="H54">
+        <v>0.00391689271606637</v>
+      </c>
+      <c r="I54">
+        <v>-0.121448257271011</v>
+      </c>
+      <c r="J54">
+        <v>0.04291742687600979</v>
+      </c>
+      <c r="K54">
+        <v>0.08174358828045926</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09803080148114987</v>
+        <v>0.09806305700864917</v>
       </c>
       <c r="C55">
-        <v>-0.002612284758335111</v>
+        <v>-0.0254719740900505</v>
       </c>
       <c r="D55">
-        <v>-0.04780696772710841</v>
+        <v>0.04054465481791197</v>
       </c>
       <c r="E55">
-        <v>0.03041501417043719</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.00984296827010196</v>
+      </c>
+      <c r="F55">
+        <v>-0.01356516168627932</v>
+      </c>
+      <c r="G55">
+        <v>-0.03042321381307176</v>
+      </c>
+      <c r="H55">
+        <v>-0.1694569132640278</v>
+      </c>
+      <c r="I55">
+        <v>-0.01568300137003843</v>
+      </c>
+      <c r="J55">
+        <v>0.04346524979725724</v>
+      </c>
+      <c r="K55">
+        <v>-0.04472266004355875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1545035440357043</v>
+        <v>0.1532045965169166</v>
       </c>
       <c r="C56">
-        <v>-0.03150440744207213</v>
+        <v>-0.03108365401414359</v>
       </c>
       <c r="D56">
-        <v>-0.07755819969982133</v>
+        <v>0.06773354931495208</v>
       </c>
       <c r="E56">
-        <v>0.04594493085195677</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.002586836918454223</v>
+      </c>
+      <c r="F56">
+        <v>-0.004555529660568162</v>
+      </c>
+      <c r="G56">
+        <v>-0.01375943249521921</v>
+      </c>
+      <c r="H56">
+        <v>-0.2377789426799834</v>
+      </c>
+      <c r="I56">
+        <v>0.0495881268354422</v>
+      </c>
+      <c r="J56">
+        <v>0.009299215335146046</v>
+      </c>
+      <c r="K56">
+        <v>-0.0214705434372691</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,656 +2689,1358 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.122330830441462</v>
+        <v>0.08183356096498104</v>
       </c>
       <c r="C58">
-        <v>0.05519160253081897</v>
+        <v>-0.04469334157558854</v>
       </c>
       <c r="D58">
-        <v>0.1117690742370067</v>
+        <v>-0.1642764716413356</v>
       </c>
       <c r="E58">
-        <v>0.1207623861755294</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.07636998805849343</v>
+      </c>
+      <c r="F58">
+        <v>-0.03467371327418473</v>
+      </c>
+      <c r="G58">
+        <v>0.1040952605851006</v>
+      </c>
+      <c r="H58">
+        <v>0.2841950397831282</v>
+      </c>
+      <c r="I58">
+        <v>-0.4476944606837447</v>
+      </c>
+      <c r="J58">
+        <v>0.07213051609373265</v>
+      </c>
+      <c r="K58">
+        <v>-0.2900914538182794</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1221833437239112</v>
+        <v>0.1604843329751158</v>
       </c>
       <c r="C59">
-        <v>-0.4402447181940136</v>
+        <v>0.3610091550090019</v>
       </c>
       <c r="D59">
-        <v>0.03526739642418542</v>
+        <v>-0.0211536210910865</v>
       </c>
       <c r="E59">
-        <v>0.08539188777427728</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02938043872617902</v>
+      </c>
+      <c r="F59">
+        <v>0.01132821675991268</v>
+      </c>
+      <c r="G59">
+        <v>-0.01463461908680193</v>
+      </c>
+      <c r="H59">
+        <v>-0.05284997003081587</v>
+      </c>
+      <c r="I59">
+        <v>-0.004076416055065426</v>
+      </c>
+      <c r="J59">
+        <v>-0.07314342294156913</v>
+      </c>
+      <c r="K59">
+        <v>0.008843854110921867</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2187801737766423</v>
+        <v>0.2462580260290007</v>
       </c>
       <c r="C60">
-        <v>-0.03118147762182088</v>
+        <v>-0.0287686810588854</v>
       </c>
       <c r="D60">
-        <v>-0.07250501077042931</v>
+        <v>0.1243780460482554</v>
       </c>
       <c r="E60">
-        <v>0.05896744834461161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.03927807613405781</v>
+      </c>
+      <c r="F60">
+        <v>0.07187258055182734</v>
+      </c>
+      <c r="G60">
+        <v>0.02342969019151186</v>
+      </c>
+      <c r="H60">
+        <v>0.09271711714561565</v>
+      </c>
+      <c r="I60">
+        <v>0.1709202905423489</v>
+      </c>
+      <c r="J60">
+        <v>0.05627859148581184</v>
+      </c>
+      <c r="K60">
+        <v>-0.1282269022861867</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.08110839885866691</v>
+        <v>0.08861523716041127</v>
       </c>
       <c r="C61">
-        <v>0.02269686044976894</v>
+        <v>-0.03654590358647245</v>
       </c>
       <c r="D61">
-        <v>-0.02874186754107314</v>
+        <v>0.0258824095709962</v>
       </c>
       <c r="E61">
-        <v>0.0062692607491355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.009297029843472197</v>
+      </c>
+      <c r="F61">
+        <v>-0.02495592202737266</v>
+      </c>
+      <c r="G61">
+        <v>-0.05147681221420401</v>
+      </c>
+      <c r="H61">
+        <v>-0.04344798521067688</v>
+      </c>
+      <c r="I61">
+        <v>-0.07300810657754978</v>
+      </c>
+      <c r="J61">
+        <v>-0.06002320400642473</v>
+      </c>
+      <c r="K61">
+        <v>0.0003988599384244507</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.146784187958924</v>
+        <v>0.1459789109910091</v>
       </c>
       <c r="C62">
-        <v>-0.0296498442865034</v>
+        <v>-0.03278012970158498</v>
       </c>
       <c r="D62">
-        <v>-0.03613744999213916</v>
+        <v>0.04315048338678173</v>
       </c>
       <c r="E62">
-        <v>-0.008607735646631849</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.03162351410758628</v>
+      </c>
+      <c r="F62">
+        <v>0.03369423659702822</v>
+      </c>
+      <c r="G62">
+        <v>-0.03414856713511474</v>
+      </c>
+      <c r="H62">
+        <v>-0.232688988610536</v>
+      </c>
+      <c r="I62">
+        <v>0.07484523729681887</v>
+      </c>
+      <c r="J62">
+        <v>0.07286088784714428</v>
+      </c>
+      <c r="K62">
+        <v>-0.01059785272177178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.06233420447521051</v>
+        <v>0.05408630115684824</v>
       </c>
       <c r="C63">
-        <v>0.02701215739914295</v>
+        <v>-0.02143458495961548</v>
       </c>
       <c r="D63">
-        <v>-0.01840535512228073</v>
+        <v>0.004060919262428511</v>
       </c>
       <c r="E63">
-        <v>0.01593325053570968</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.00805115618557742</v>
+      </c>
+      <c r="F63">
+        <v>-0.0313611628608228</v>
+      </c>
+      <c r="G63">
+        <v>-0.05278891806434168</v>
+      </c>
+      <c r="H63">
+        <v>-0.01079854693500824</v>
+      </c>
+      <c r="I63">
+        <v>-0.03543011973753453</v>
+      </c>
+      <c r="J63">
+        <v>0.0432732619493787</v>
+      </c>
+      <c r="K63">
+        <v>0.0373440946671898</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.103739400340792</v>
+        <v>0.1076840631540113</v>
       </c>
       <c r="C64">
-        <v>-0.0008686842491056091</v>
+        <v>-0.01850540360945362</v>
       </c>
       <c r="D64">
-        <v>-0.04665055315259645</v>
+        <v>0.04021230629071813</v>
       </c>
       <c r="E64">
-        <v>0.03140364752428092</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02472475749949036</v>
+      </c>
+      <c r="F64">
+        <v>-0.05839985782704687</v>
+      </c>
+      <c r="G64">
+        <v>-0.04994100530291137</v>
+      </c>
+      <c r="H64">
+        <v>0.0198889262387005</v>
+      </c>
+      <c r="I64">
+        <v>-0.04980580756115389</v>
+      </c>
+      <c r="J64">
+        <v>-0.0349846505021004</v>
+      </c>
+      <c r="K64">
+        <v>0.01893582105149413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1211572003487461</v>
+        <v>0.1318089781179571</v>
       </c>
       <c r="C65">
-        <v>0.02310460274270717</v>
+        <v>-0.005595603942884898</v>
       </c>
       <c r="D65">
-        <v>-0.04146173987767963</v>
+        <v>0.05591539781908391</v>
       </c>
       <c r="E65">
-        <v>0.05856171939385786</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.0005888450186680655</v>
+      </c>
+      <c r="F65">
+        <v>-0.04312524963836785</v>
+      </c>
+      <c r="G65">
+        <v>-0.08473336960560118</v>
+      </c>
+      <c r="H65">
+        <v>0.2399483952583341</v>
+      </c>
+      <c r="I65">
+        <v>0.07809032086616102</v>
+      </c>
+      <c r="J65">
+        <v>0.6537667097163137</v>
+      </c>
+      <c r="K65">
+        <v>-0.02226146480792935</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.159664196667205</v>
+        <v>0.1492213834052937</v>
       </c>
       <c r="C66">
-        <v>0.07373551624584813</v>
+        <v>-0.09324223882195985</v>
       </c>
       <c r="D66">
-        <v>-0.05320148531631878</v>
+        <v>0.04093089233672054</v>
       </c>
       <c r="E66">
-        <v>0.0136789446235876</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.0004293183849751001</v>
+      </c>
+      <c r="F66">
+        <v>-0.02177071074712916</v>
+      </c>
+      <c r="G66">
+        <v>-0.08895138061269961</v>
+      </c>
+      <c r="H66">
+        <v>-0.02134183715794066</v>
+      </c>
+      <c r="I66">
+        <v>-0.1626056150570803</v>
+      </c>
+      <c r="J66">
+        <v>-0.1906361341005916</v>
+      </c>
+      <c r="K66">
+        <v>0.04392761052386011</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.09551085762540946</v>
+        <v>0.09816398350377176</v>
       </c>
       <c r="C67">
-        <v>0.004917470484422958</v>
+        <v>-0.03862625967779133</v>
       </c>
       <c r="D67">
-        <v>0.02222021828006975</v>
+        <v>-0.01195666832316553</v>
       </c>
       <c r="E67">
-        <v>0.002211775760389274</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.03011046145233327</v>
+      </c>
+      <c r="F67">
+        <v>0.01498474163752711</v>
+      </c>
+      <c r="G67">
+        <v>0.008545099346831201</v>
+      </c>
+      <c r="H67">
+        <v>-0.01958594511766591</v>
+      </c>
+      <c r="I67">
+        <v>0.04248686173344194</v>
+      </c>
+      <c r="J67">
+        <v>-0.06070539962968442</v>
+      </c>
+      <c r="K67">
+        <v>0.05086904814911757</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.04078062409219891</v>
+        <v>0.07318635861372913</v>
       </c>
       <c r="C68">
-        <v>-0.257761536224615</v>
+        <v>0.2817043339051995</v>
       </c>
       <c r="D68">
-        <v>0.02454965856074936</v>
+        <v>-0.02090436726621981</v>
       </c>
       <c r="E68">
-        <v>0.04300811163723044</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01408168260712885</v>
+      </c>
+      <c r="F68">
+        <v>-0.04124008937140162</v>
+      </c>
+      <c r="G68">
+        <v>0.003951334886771551</v>
+      </c>
+      <c r="H68">
+        <v>-0.01476794873607575</v>
+      </c>
+      <c r="I68">
+        <v>-0.0287154457090261</v>
+      </c>
+      <c r="J68">
+        <v>0.04304485652728838</v>
+      </c>
+      <c r="K68">
+        <v>0.008911781017709673</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.06821832917747918</v>
+        <v>0.05709968395489055</v>
       </c>
       <c r="C69">
-        <v>0.01076276541617077</v>
+        <v>-0.01666336677696096</v>
       </c>
       <c r="D69">
-        <v>-0.001249033561782313</v>
+        <v>-0.01983482067350616</v>
       </c>
       <c r="E69">
-        <v>0.01515030899301299</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.007446243612127266</v>
+      </c>
+      <c r="F69">
+        <v>-0.01107015126236535</v>
+      </c>
+      <c r="G69">
+        <v>-0.0001626817544110399</v>
+      </c>
+      <c r="H69">
+        <v>-0.0307291659530571</v>
+      </c>
+      <c r="I69">
+        <v>-0.01716380560952933</v>
+      </c>
+      <c r="J69">
+        <v>0.003190201382906972</v>
+      </c>
+      <c r="K69">
+        <v>-0.008218281263288604</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.01353546448601316</v>
+        <v>0.03900691537547058</v>
       </c>
       <c r="C70">
-        <v>-0.01167698291732614</v>
+        <v>-0.002506135699807472</v>
       </c>
       <c r="D70">
-        <v>0.005223940686039048</v>
+        <v>0.003802644851947609</v>
       </c>
       <c r="E70">
-        <v>-0.01456991851950705</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.002024131914101165</v>
+      </c>
+      <c r="F70">
+        <v>0.05071102508993486</v>
+      </c>
+      <c r="G70">
+        <v>0.008987521556322681</v>
+      </c>
+      <c r="H70">
+        <v>0.03909493645533672</v>
+      </c>
+      <c r="I70">
+        <v>0.01744826517907488</v>
+      </c>
+      <c r="J70">
+        <v>-0.03068657593749246</v>
+      </c>
+      <c r="K70">
+        <v>0.1337792346505526</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.03751341000804611</v>
+        <v>0.08157268329088334</v>
       </c>
       <c r="C71">
-        <v>-0.2883884117763978</v>
+        <v>0.3018815070002869</v>
       </c>
       <c r="D71">
-        <v>0.0352978181502361</v>
+        <v>-0.01226421670738517</v>
       </c>
       <c r="E71">
-        <v>0.08078957636815294</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03294241680957653</v>
+      </c>
+      <c r="F71">
+        <v>-0.033708300828133</v>
+      </c>
+      <c r="G71">
+        <v>-0.001005369278295286</v>
+      </c>
+      <c r="H71">
+        <v>-0.01434168921326925</v>
+      </c>
+      <c r="I71">
+        <v>-0.02304644894615409</v>
+      </c>
+      <c r="J71">
+        <v>0.01430723783110233</v>
+      </c>
+      <c r="K71">
+        <v>-0.0009986362487060458</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1476421379472594</v>
+        <v>0.1380985760869709</v>
       </c>
       <c r="C72">
-        <v>-0.0463698805525112</v>
+        <v>0.002824102143453814</v>
       </c>
       <c r="D72">
-        <v>-0.03398131934485908</v>
+        <v>-0.01688623741679594</v>
       </c>
       <c r="E72">
-        <v>-0.2298563667923419</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.1722092823504627</v>
+      </c>
+      <c r="F72">
+        <v>0.03696059750532137</v>
+      </c>
+      <c r="G72">
+        <v>-0.1136740003105727</v>
+      </c>
+      <c r="H72">
+        <v>-0.01037335449849827</v>
+      </c>
+      <c r="I72">
+        <v>0.03361662688223545</v>
+      </c>
+      <c r="J72">
+        <v>0.09823981272949762</v>
+      </c>
+      <c r="K72">
+        <v>-0.1142409185226669</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2541821936727716</v>
+        <v>0.2515849987413234</v>
       </c>
       <c r="C73">
-        <v>0.03984000638260004</v>
+        <v>-0.09343217201773735</v>
       </c>
       <c r="D73">
-        <v>-0.09948255340578215</v>
+        <v>0.1856734833612701</v>
       </c>
       <c r="E73">
-        <v>0.07136898354408761</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.08936082781511638</v>
+      </c>
+      <c r="F73">
+        <v>0.2416929782394755</v>
+      </c>
+      <c r="G73">
+        <v>0.1963788199060021</v>
+      </c>
+      <c r="H73">
+        <v>0.2236089877162279</v>
+      </c>
+      <c r="I73">
+        <v>0.08085921209018439</v>
+      </c>
+      <c r="J73">
+        <v>-0.2375632602604044</v>
+      </c>
+      <c r="K73">
+        <v>-0.4994900719178862</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.08712802996916603</v>
+        <v>0.092903271063156</v>
       </c>
       <c r="C74">
-        <v>-0.01847793803382174</v>
+        <v>-0.0273517289353165</v>
       </c>
       <c r="D74">
-        <v>-0.05543227179213465</v>
+        <v>0.04910168715989128</v>
       </c>
       <c r="E74">
-        <v>0.002776094593021619</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01618677831199383</v>
+      </c>
+      <c r="F74">
+        <v>-0.0026505851024481</v>
+      </c>
+      <c r="G74">
+        <v>0.0271934547380952</v>
+      </c>
+      <c r="H74">
+        <v>-0.1404933403752911</v>
+      </c>
+      <c r="I74">
+        <v>-0.01896777753681441</v>
+      </c>
+      <c r="J74">
+        <v>0.009571061592162634</v>
+      </c>
+      <c r="K74">
+        <v>-0.06479250778382523</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.1210262979833514</v>
+        <v>0.1052324837781452</v>
       </c>
       <c r="C75">
-        <v>-0.003250277891129075</v>
+        <v>-0.02706416987029018</v>
       </c>
       <c r="D75">
-        <v>-0.005216882464072086</v>
+        <v>-0.0153789658464934</v>
       </c>
       <c r="E75">
-        <v>0.02269068150204033</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.005129291068917519</v>
+      </c>
+      <c r="F75">
+        <v>0.01940176574107685</v>
+      </c>
+      <c r="G75">
+        <v>0.007240928502586376</v>
+      </c>
+      <c r="H75">
+        <v>-0.1236876758019389</v>
+      </c>
+      <c r="I75">
+        <v>0.03640139476702541</v>
+      </c>
+      <c r="J75">
+        <v>0.03380973948207937</v>
+      </c>
+      <c r="K75">
+        <v>-0.007797726233339954</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1445141554560386</v>
+        <v>0.1339327825407473</v>
       </c>
       <c r="C76">
-        <v>-0.002530664660490596</v>
+        <v>-0.04746246531114372</v>
       </c>
       <c r="D76">
-        <v>-0.06401330560900569</v>
+        <v>0.06092376189063759</v>
       </c>
       <c r="E76">
-        <v>0.03505571622691542</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.009590706741489664</v>
+      </c>
+      <c r="F76">
+        <v>-0.01708370910418281</v>
+      </c>
+      <c r="G76">
+        <v>-0.01987419131418909</v>
+      </c>
+      <c r="H76">
+        <v>-0.2789724801343578</v>
+      </c>
+      <c r="I76">
+        <v>0.02239408676566672</v>
+      </c>
+      <c r="J76">
+        <v>0.042732417174016</v>
+      </c>
+      <c r="K76">
+        <v>-0.03935452778216986</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.1408865103624369</v>
+        <v>0.09896908430168018</v>
       </c>
       <c r="C77">
-        <v>0.06435518019549993</v>
+        <v>-0.04303300550002957</v>
       </c>
       <c r="D77">
-        <v>0.08402831827066108</v>
+        <v>-0.173647015440819</v>
       </c>
       <c r="E77">
-        <v>0.07179864483910033</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.08658878133899529</v>
+      </c>
+      <c r="F77">
+        <v>-0.08762505467757434</v>
+      </c>
+      <c r="G77">
+        <v>-0.7312679107817333</v>
+      </c>
+      <c r="H77">
+        <v>0.2045633119084382</v>
+      </c>
+      <c r="I77">
+        <v>0.3926076316288235</v>
+      </c>
+      <c r="J77">
+        <v>-0.2483733889277637</v>
+      </c>
+      <c r="K77">
+        <v>-0.02878232820108105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.1199328238840065</v>
+        <v>0.1628423152380126</v>
       </c>
       <c r="C78">
-        <v>0.05862585145991298</v>
+        <v>-0.0655301349408795</v>
       </c>
       <c r="D78">
-        <v>-0.05130638895845543</v>
+        <v>0.02850493301038446</v>
       </c>
       <c r="E78">
-        <v>0.01063846546860271</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.03913023571488155</v>
+      </c>
+      <c r="F78">
+        <v>-0.1734613035856483</v>
+      </c>
+      <c r="G78">
+        <v>0.02271848502034004</v>
+      </c>
+      <c r="H78">
+        <v>0.1434965839246961</v>
+      </c>
+      <c r="I78">
+        <v>0.01458896655101415</v>
+      </c>
+      <c r="J78">
+        <v>0.04111938263282174</v>
+      </c>
+      <c r="K78">
+        <v>0.06106787209605014</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.154370457152747</v>
+        <v>0.1470780647588646</v>
       </c>
       <c r="C79">
-        <v>0.01937529537935608</v>
+        <v>-0.04165100959477799</v>
       </c>
       <c r="D79">
-        <v>-0.05598652776927663</v>
+        <v>0.03951193096488222</v>
       </c>
       <c r="E79">
-        <v>0.007774169882085367</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.001237765445470263</v>
+      </c>
+      <c r="F79">
+        <v>0.003417335191789357</v>
+      </c>
+      <c r="G79">
+        <v>-0.0458859570914336</v>
+      </c>
+      <c r="H79">
+        <v>-0.1949244137471117</v>
+      </c>
+      <c r="I79">
+        <v>0.05218128451433855</v>
+      </c>
+      <c r="J79">
+        <v>0.06673394377099713</v>
+      </c>
+      <c r="K79">
+        <v>-0.02516672538386267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03853853584859112</v>
+        <v>0.04148026462414243</v>
       </c>
       <c r="C80">
-        <v>0.01536811799438777</v>
+        <v>-0.007412997311378393</v>
       </c>
       <c r="D80">
-        <v>-0.01436631726027302</v>
+        <v>0.04109764774963334</v>
       </c>
       <c r="E80">
-        <v>0.002862022148896555</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.002728090568269819</v>
+      </c>
+      <c r="F80">
+        <v>0.03665434176877005</v>
+      </c>
+      <c r="G80">
+        <v>-0.006899606275509199</v>
+      </c>
+      <c r="H80">
+        <v>0.03881536715436032</v>
+      </c>
+      <c r="I80">
+        <v>-0.08031026946208338</v>
+      </c>
+      <c r="J80">
+        <v>0.01779659700321748</v>
+      </c>
+      <c r="K80">
+        <v>0.02393727879773548</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.134341765073649</v>
+        <v>0.1307787204084188</v>
       </c>
       <c r="C81">
-        <v>-0.007809830723065565</v>
+        <v>-0.01569951347639985</v>
       </c>
       <c r="D81">
-        <v>-0.0499312561994246</v>
+        <v>0.03799375026029322</v>
       </c>
       <c r="E81">
-        <v>0.02788125076282781</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.006188658594284711</v>
+      </c>
+      <c r="F81">
+        <v>-0.0006702280616689455</v>
+      </c>
+      <c r="G81">
+        <v>-0.008850163993729166</v>
+      </c>
+      <c r="H81">
+        <v>-0.1544830231676906</v>
+      </c>
+      <c r="I81">
+        <v>0.001570198371958266</v>
+      </c>
+      <c r="J81">
+        <v>-0.01771560724716324</v>
+      </c>
+      <c r="K81">
+        <v>0.008000452983149815</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1256577487259999</v>
+        <v>0.1252526220315229</v>
       </c>
       <c r="C82">
-        <v>0.01732255206237487</v>
+        <v>-0.02864835527711292</v>
       </c>
       <c r="D82">
-        <v>-0.02969321832006286</v>
+        <v>0.03667651028001838</v>
       </c>
       <c r="E82">
-        <v>0.04190386250555896</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01408678578224061</v>
+      </c>
+      <c r="F82">
+        <v>0.02064120810716867</v>
+      </c>
+      <c r="G82">
+        <v>0.007460884320541969</v>
+      </c>
+      <c r="H82">
+        <v>-0.2846230616799678</v>
+      </c>
+      <c r="I82">
+        <v>0.01253174092486064</v>
+      </c>
+      <c r="J82">
+        <v>0.001231644151461618</v>
+      </c>
+      <c r="K82">
+        <v>0.0005518287461890146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.0529253205934512</v>
+        <v>0.07742387163232808</v>
       </c>
       <c r="C83">
-        <v>0.0159738182401007</v>
+        <v>-0.02878258185052721</v>
       </c>
       <c r="D83">
-        <v>0.05764507278160336</v>
+        <v>-0.02290496252235429</v>
       </c>
       <c r="E83">
-        <v>0.01471855514895238</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.03576348911466515</v>
+      </c>
+      <c r="F83">
+        <v>0.06387014155259675</v>
+      </c>
+      <c r="G83">
+        <v>0.0418539752680218</v>
+      </c>
+      <c r="H83">
+        <v>0.08217627648476759</v>
+      </c>
+      <c r="I83">
+        <v>-0.08699911056886932</v>
+      </c>
+      <c r="J83">
+        <v>-0.017956540764012</v>
+      </c>
+      <c r="K83">
+        <v>0.04814178657508829</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.04913218956692531</v>
+        <v>0.036469864344984</v>
       </c>
       <c r="C84">
-        <v>0.007834420091224604</v>
+        <v>-0.03938721230472783</v>
       </c>
       <c r="D84">
-        <v>-0.04817902323607835</v>
+        <v>0.007922664086993684</v>
       </c>
       <c r="E84">
-        <v>-0.039743074111774</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.05164214143377225</v>
+      </c>
+      <c r="F84">
+        <v>-0.03975340581171494</v>
+      </c>
+      <c r="G84">
+        <v>0.0379851344521983</v>
+      </c>
+      <c r="H84">
+        <v>0.001848474870676792</v>
+      </c>
+      <c r="I84">
+        <v>-0.130762868217412</v>
+      </c>
+      <c r="J84">
+        <v>0.007175466734670499</v>
+      </c>
+      <c r="K84">
+        <v>0.1162818135976382</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1166039259064673</v>
+        <v>0.1224258404097888</v>
       </c>
       <c r="C85">
-        <v>0.03511898097479231</v>
+        <v>-0.038091304023405</v>
       </c>
       <c r="D85">
-        <v>-0.01940253905805376</v>
+        <v>0.01987574217882871</v>
       </c>
       <c r="E85">
-        <v>0.0652455438514719</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.03648568247544513</v>
+      </c>
+      <c r="F85">
+        <v>-0.01163109054007332</v>
+      </c>
+      <c r="G85">
+        <v>-0.01563436561508353</v>
+      </c>
+      <c r="H85">
+        <v>-0.1972201332817404</v>
+      </c>
+      <c r="I85">
+        <v>0.02193934022784527</v>
+      </c>
+      <c r="J85">
+        <v>0.07103665093334108</v>
+      </c>
+      <c r="K85">
+        <v>-0.02803172641071247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.07445462360095702</v>
+        <v>0.0658341391430346</v>
       </c>
       <c r="C86">
-        <v>0.06103340054779676</v>
+        <v>-0.03016178672322013</v>
       </c>
       <c r="D86">
-        <v>-0.02102800744915799</v>
+        <v>-0.01175499470739091</v>
       </c>
       <c r="E86">
-        <v>0.02290547676762399</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02016644580262408</v>
+      </c>
+      <c r="F86">
+        <v>-0.03837289225860016</v>
+      </c>
+      <c r="G86">
+        <v>0.01472368268715478</v>
+      </c>
+      <c r="H86">
+        <v>0.04361989449700976</v>
+      </c>
+      <c r="I86">
+        <v>0.06385036780094734</v>
+      </c>
+      <c r="J86">
+        <v>0.005247547891073309</v>
+      </c>
+      <c r="K86">
+        <v>0.1008258008186532</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1322001937727609</v>
+        <v>0.1297359717716301</v>
       </c>
       <c r="C87">
-        <v>0.06793664381737823</v>
+        <v>-0.07127342447121929</v>
       </c>
       <c r="D87">
-        <v>-0.06730502072723413</v>
+        <v>0.009397108828442099</v>
       </c>
       <c r="E87">
-        <v>0.04757356706189789</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01573557777293153</v>
+      </c>
+      <c r="F87">
+        <v>-0.100314221493018</v>
+      </c>
+      <c r="G87">
+        <v>-0.1681752117390649</v>
+      </c>
+      <c r="H87">
+        <v>0.06749966000373073</v>
+      </c>
+      <c r="I87">
+        <v>0.004922813000628945</v>
+      </c>
+      <c r="J87">
+        <v>-0.03074099183033326</v>
+      </c>
+      <c r="K87">
+        <v>0.01138585087769933</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.06086277966926772</v>
+        <v>0.06546724672330445</v>
       </c>
       <c r="C88">
-        <v>0.02342399306774576</v>
+        <v>-0.0383313853034706</v>
       </c>
       <c r="D88">
-        <v>-0.01339457613872306</v>
+        <v>0.02528888317570336</v>
       </c>
       <c r="E88">
-        <v>0.01062404074835016</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01329450543178091</v>
+      </c>
+      <c r="F88">
+        <v>0.002006424056791288</v>
+      </c>
+      <c r="G88">
+        <v>-0.02294366464647512</v>
+      </c>
+      <c r="H88">
+        <v>-0.01609098410344464</v>
+      </c>
+      <c r="I88">
+        <v>-0.04237388308002579</v>
+      </c>
+      <c r="J88">
+        <v>-0.01215360291123077</v>
+      </c>
+      <c r="K88">
+        <v>0.02281859766690461</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.07037819698800152</v>
+        <v>0.131013962371958</v>
       </c>
       <c r="C89">
-        <v>-0.3286086882733954</v>
+        <v>0.3795822776044653</v>
       </c>
       <c r="D89">
-        <v>0.02767256984973116</v>
+        <v>-0.0006549294605908334</v>
       </c>
       <c r="E89">
-        <v>0.1057820553960917</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.07933053585102402</v>
+      </c>
+      <c r="F89">
+        <v>-0.04147678981245671</v>
+      </c>
+      <c r="G89">
+        <v>0.02423617446920021</v>
+      </c>
+      <c r="H89">
+        <v>0.01094781658112985</v>
+      </c>
+      <c r="I89">
+        <v>-0.07623365263786099</v>
+      </c>
+      <c r="J89">
+        <v>-0.0620310249317142</v>
+      </c>
+      <c r="K89">
+        <v>-0.01205879817804305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.06170951572518668</v>
+        <v>0.09497497478497997</v>
       </c>
       <c r="C90">
-        <v>-0.2871000570622657</v>
+        <v>0.2830554021572777</v>
       </c>
       <c r="D90">
-        <v>0.04938245179585617</v>
+        <v>-0.03028715204024616</v>
       </c>
       <c r="E90">
-        <v>0.05273152420112603</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.02619943049609538</v>
+      </c>
+      <c r="F90">
+        <v>-0.01168672065805633</v>
+      </c>
+      <c r="G90">
+        <v>-0.01941533497507581</v>
+      </c>
+      <c r="H90">
+        <v>0.0439709392453692</v>
+      </c>
+      <c r="I90">
+        <v>-0.07723516889731129</v>
+      </c>
+      <c r="J90">
+        <v>-0.04045287478595419</v>
+      </c>
+      <c r="K90">
+        <v>-0.02553094635263446</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.1036699789382918</v>
+        <v>0.09136669815271502</v>
       </c>
       <c r="C91">
-        <v>0.008421583772432264</v>
+        <v>-0.03330808224860846</v>
       </c>
       <c r="D91">
-        <v>-0.02803323371476035</v>
+        <v>0.009071537390055848</v>
       </c>
       <c r="E91">
-        <v>0.01421140039930183</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.002142844994549145</v>
+      </c>
+      <c r="F91">
+        <v>0.006559133684256391</v>
+      </c>
+      <c r="G91">
+        <v>0.01398750091494774</v>
+      </c>
+      <c r="H91">
+        <v>-0.09004605907656986</v>
+      </c>
+      <c r="I91">
+        <v>0.02002341584873387</v>
+      </c>
+      <c r="J91">
+        <v>0.0108635320844378</v>
+      </c>
+      <c r="K91">
+        <v>-0.02575902056785714</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.04568879435300983</v>
+        <v>0.0931841975201082</v>
       </c>
       <c r="C92">
-        <v>-0.3385396300690162</v>
+        <v>0.3411638774419321</v>
       </c>
       <c r="D92">
-        <v>0.01223751696027971</v>
+        <v>0.0003587460246643659</v>
       </c>
       <c r="E92">
-        <v>0.09171694034215054</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.04001850637572911</v>
+      </c>
+      <c r="F92">
+        <v>-0.04855387491614178</v>
+      </c>
+      <c r="G92">
+        <v>-0.001459972595735282</v>
+      </c>
+      <c r="H92">
+        <v>-0.01371468434485772</v>
+      </c>
+      <c r="I92">
+        <v>-0.02571554320870395</v>
+      </c>
+      <c r="J92">
+        <v>-0.02063492527529518</v>
+      </c>
+      <c r="K92">
+        <v>-0.002821710951141816</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.04061575830784485</v>
+        <v>0.09390737420477339</v>
       </c>
       <c r="C93">
-        <v>-0.3007434745286042</v>
+        <v>0.319347002689226</v>
       </c>
       <c r="D93">
-        <v>0.03012349584474067</v>
+        <v>-0.00113103951070494</v>
       </c>
       <c r="E93">
-        <v>0.0551466356687525</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02229279884492629</v>
+      </c>
+      <c r="F93">
+        <v>-0.005229305239926774</v>
+      </c>
+      <c r="G93">
+        <v>-0.0009049096935872361</v>
+      </c>
+      <c r="H93">
+        <v>0.01080374238111832</v>
+      </c>
+      <c r="I93">
+        <v>0.001395905176292972</v>
+      </c>
+      <c r="J93">
+        <v>0.007627108954584096</v>
+      </c>
+      <c r="K93">
+        <v>0.03121694299786176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.127400663631397</v>
+        <v>0.1221484303106515</v>
       </c>
       <c r="C94">
-        <v>0.04915610852222829</v>
+        <v>-0.05215315617628465</v>
       </c>
       <c r="D94">
-        <v>-0.03260739494332433</v>
+        <v>0.01256895340392875</v>
       </c>
       <c r="E94">
-        <v>0.03696443099281307</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.02572650837423686</v>
+      </c>
+      <c r="F94">
+        <v>-0.01452131174754268</v>
+      </c>
+      <c r="G94">
+        <v>0.05207179680939165</v>
+      </c>
+      <c r="H94">
+        <v>-0.1206991996495448</v>
+      </c>
+      <c r="I94">
+        <v>0.01711721873735379</v>
+      </c>
+      <c r="J94">
+        <v>0.02212819324033949</v>
+      </c>
+      <c r="K94">
+        <v>-0.02134747623834737</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1329379662842065</v>
+        <v>0.1425404880416042</v>
       </c>
       <c r="C95">
-        <v>0.07015541806987158</v>
+        <v>-0.06201651850545128</v>
       </c>
       <c r="D95">
-        <v>-0.07397772206948809</v>
+        <v>0.0373699989027924</v>
       </c>
       <c r="E95">
-        <v>0.06182175761681035</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.03072950363643237</v>
+      </c>
+      <c r="F95">
+        <v>-0.0511401105399126</v>
+      </c>
+      <c r="G95">
+        <v>-0.02807377050591758</v>
+      </c>
+      <c r="H95">
+        <v>0.1511915367475448</v>
+      </c>
+      <c r="I95">
+        <v>-0.01707251044410402</v>
+      </c>
+      <c r="J95">
+        <v>0.01285730320459278</v>
+      </c>
+      <c r="K95">
+        <v>-0.003863399555280733</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +4054,133 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.2458299750313823</v>
+        <v>0.1862155007357501</v>
       </c>
       <c r="C97">
-        <v>-0.1489942408620456</v>
+        <v>0.04125621428845593</v>
       </c>
       <c r="D97">
-        <v>-0.0530099909702773</v>
+        <v>-0.2362139704975686</v>
       </c>
       <c r="E97">
-        <v>-0.8892935745139748</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.902025199780633</v>
+      </c>
+      <c r="F97">
+        <v>0.125630739688484</v>
+      </c>
+      <c r="G97">
+        <v>-0.03238019628122483</v>
+      </c>
+      <c r="H97">
+        <v>0.05702690343532117</v>
+      </c>
+      <c r="I97">
+        <v>-0.04372779793143357</v>
+      </c>
+      <c r="J97">
+        <v>-0.03017549025813842</v>
+      </c>
+      <c r="K97">
+        <v>-0.05036643261566302</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.2807064936761069</v>
+        <v>0.2859234751891878</v>
       </c>
       <c r="C98">
-        <v>0.02426593664245441</v>
+        <v>-0.08154167011587131</v>
       </c>
       <c r="D98">
-        <v>-0.0005895508285809377</v>
+        <v>0.09026971106382321</v>
       </c>
       <c r="E98">
-        <v>0.03922744619309048</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.0157958854066534</v>
+      </c>
+      <c r="F98">
+        <v>0.3072154357110712</v>
+      </c>
+      <c r="G98">
+        <v>0.2938165102224654</v>
+      </c>
+      <c r="H98">
+        <v>0.2284305582950908</v>
+      </c>
+      <c r="I98">
+        <v>0.2156799382802077</v>
+      </c>
+      <c r="J98">
+        <v>-0.1402650101737722</v>
+      </c>
+      <c r="K98">
+        <v>0.6044027151045107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.2428026734577074</v>
+        <v>0.1626348636320029</v>
       </c>
       <c r="C99">
-        <v>0.1082708333528732</v>
+        <v>-0.07177624579096106</v>
       </c>
       <c r="D99">
-        <v>0.9224270155398838</v>
+        <v>-0.7704622064281414</v>
       </c>
       <c r="E99">
-        <v>-0.02477972414379905</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.298571506563666</v>
+      </c>
+      <c r="F99">
+        <v>0.4212178036676578</v>
+      </c>
+      <c r="G99">
+        <v>0.01564581926426503</v>
+      </c>
+      <c r="H99">
+        <v>-0.1061116462486048</v>
+      </c>
+      <c r="I99">
+        <v>-0.05247960324432654</v>
+      </c>
+      <c r="J99">
+        <v>0.1083986804201837</v>
+      </c>
+      <c r="K99">
+        <v>-0.01079000956594384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,27 +4194,63 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.0586346966226115</v>
+        <v>0.05560138388056979</v>
       </c>
       <c r="C101">
-        <v>-0.003776135913688942</v>
+        <v>-0.009181420290204871</v>
       </c>
       <c r="D101">
-        <v>-0.03143205905157336</v>
+        <v>0.02221182063185289</v>
       </c>
       <c r="E101">
-        <v>0.0242050796752296</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01208487893616103</v>
+      </c>
+      <c r="F101">
+        <v>-0.04027042429160974</v>
+      </c>
+      <c r="G101">
+        <v>-0.02875061514380144</v>
+      </c>
+      <c r="H101">
+        <v>-0.05287052755225623</v>
+      </c>
+      <c r="I101">
+        <v>-0.04997042069571462</v>
+      </c>
+      <c r="J101">
+        <v>0.02951539074095792</v>
+      </c>
+      <c r="K101">
+        <v>0.03688586581679213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +4264,28 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +4299,28 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4332,24 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
